--- a/biology/Botanique/Indice_d'Hart-Becking/Indice_d'Hart-Becking.xlsx
+++ b/biology/Botanique/Indice_d'Hart-Becking/Indice_d'Hart-Becking.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Indice_d%27Hart-Becking</t>
+          <t>Indice_d'Hart-Becking</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'indice d'Hart-Becking (Ihb), également connu sous le nom de coefficient d'échelonnement, est un indice utilisé en sylviculture pour estimer la densité d'un peuplement. 
 Il permet de quantifier de façon rigoureuse cette densité même pour des houppiers complètement différents. Cependant, cette mesure ne peut être faite qu'une fois le peuplement bien installé, après la période de sélection positive. Plus la concurrence sera élevée, plus l'indice sera petit.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Indice_d%27Hart-Becking</t>
+          <t>Indice_d'Hart-Becking</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Explication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est défini comme étant la relation entre l'échelonnement moyen du bois (a) et sa hauteur dominante (Hdom), exprimé en pour cent, selon la formule suivante : 
  Ihb[%] = (a/Hdom)*100 
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Indice_d%27Hart-Becking</t>
+          <t>Indice_d'Hart-Becking</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(es) www.forestales.net article de référence en espagnol.
  Portail du bois et de la forêt                     </t>
